--- a/res/data.xlsx
+++ b/res/data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,13 +508,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corn</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -522,10 +520,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -534,29 +532,29 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>45510.0692231058</v>
+        <v>45510.10249487551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45508</v>
+        <v>45510</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Keyboard</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -570,22 +568,22 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>45510.0675620949</v>
+        <v>45510.10207347222</v>
       </c>
     </row>
     <row r="4">
@@ -594,11 +592,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -606,41 +604,41 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>45510.06077967593</v>
+        <v>45510.08582723379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45508</v>
+        <v>45510</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Keyboard</t>
+          <t>Ducks</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -648,41 +646,41 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
         <v>100</v>
       </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="J5" t="n">
         <v>700</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>45508.08440677083</v>
+        <v>45510.0785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Keyboard</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -690,19 +688,19 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>500</v>
@@ -711,20 +709,20 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>45504.70605789352</v>
+        <v>45510.07777121528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Keyboard</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -732,33 +730,33 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>45504.70577332176</v>
+        <v>45510.06922310185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45504</v>
+        <v>45508</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -786,29 +784,29 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>45504.70530280092</v>
+        <v>45510.0675620949</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45500</v>
+        <v>45510</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -816,41 +814,41 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J9" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>45500.05893936343</v>
+        <v>45510.06077967593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45500</v>
+        <v>45508</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -858,83 +856,83 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>45500.05762481481</v>
+        <v>45508.08440677083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Uno</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Uno</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>45500.05739766204</v>
+        <v>45504.70605789352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -942,41 +940,41 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>45500.057046875</v>
+        <v>45504.70577332176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -984,7 +982,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
@@ -999,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>45500.05677601851</v>
+        <v>45504.70530280092</v>
       </c>
     </row>
     <row r="14">
@@ -1014,40 +1012,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Par</t>
+          <t>Uno</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>45500.05386150463</v>
+        <v>45500.05893936343</v>
       </c>
     </row>
     <row r="15">
@@ -1056,40 +1054,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Par</t>
+          <t>Uno</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>45500.05386150463</v>
+        <v>45500.05762481481</v>
       </c>
     </row>
     <row r="16">
@@ -1098,19 +1096,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Par</t>
+          <t>Uno</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1122,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>45500.05386150463</v>
+        <v>45500.05739766204</v>
       </c>
     </row>
     <row r="17">
@@ -1140,11 +1138,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zapata</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1152,10 +1150,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1164,16 +1162,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>45500.03100002315</v>
+        <v>45500.057046875</v>
       </c>
     </row>
     <row r="18">
@@ -1182,11 +1180,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zapata</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1194,10 +1192,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1206,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>45500.03100002315</v>
+        <v>45500.05677601851</v>
       </c>
     </row>
     <row r="19">
@@ -1224,39 +1222,249 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zapata</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Uno</t>
+          <t>Par</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>45500.05386150463</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Par</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>45500.05386150463</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Par</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>45500.05386150463</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Zapata</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Uno</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>45500.03100002315</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Zapata</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Uno</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>45500.03100002315</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Zapata</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Uno</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="n">
         <v>45500.03100002315</v>
       </c>
     </row>
